--- a/Ambiente/Garantia Liquidaciones Release 218 - Regresíon - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Garantia Liquidaciones Release 218 - Regresíon - Escenarios y Casos de Pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4220B6E3-997E-434B-BAEE-5BFD90B9B3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD63011-6496-4802-A776-9099CE0C1C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="58">
   <si>
     <t>Parametros</t>
   </si>
@@ -249,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -264,6 +264,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,104 +830,345 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+    <row r="16" spans="1:5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>59159</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>59160</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>59154</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>59167</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>59168</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>59153</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>59157</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>59166</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>59155</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>59156</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>59158</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>59145</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>59146</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>59161</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
         <v>54063</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B30" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C30" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D30" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E30" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
         <v>50454</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B31" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="E17" t="s">
+      <c r="C31" s="8"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+    <row r="32" spans="1:5" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
         <v>50455</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B32" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C32" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D32" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E32" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
         <v>50456</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B33" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E19" t="s">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
         <v>53189</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
         <v>50508</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
         <v>50503</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7" t="s">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
         <v>50505</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7" t="s">
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7" t="s">
         <v>53</v>
       </c>
     </row>

--- a/Ambiente/Garantia Liquidaciones Release 218 - Regresíon - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Garantia Liquidaciones Release 218 - Regresíon - Escenarios y Casos de Pruebas.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8610B42-73F7-437C-A232-E664B05CCB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977100FD-D98E-4682-99CF-D931956D8048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Garantia" sheetId="7" r:id="rId1"/>
+    <sheet name="Release 218" sheetId="7" r:id="rId1"/>
+    <sheet name="Release 224" sheetId="9" r:id="rId2"/>
+    <sheet name="Credito Forzado" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Garantia!$A$1:$E$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Credito Forzado'!$A$1:$E$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Release 218'!$A$1:$E$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Release 224'!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="56">
   <si>
     <t>Parametros</t>
   </si>
@@ -184,6 +188,24 @@
   </si>
   <si>
     <t>DEBIN QR - ContracargoQR CON INTERCHANGE - Misma fecha negocio - Mismo banco</t>
+  </si>
+  <si>
+    <t>DEBIN RECURRENTE CVU-CVU</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"AutomationMVP3"},"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"27956331957","cuenta":{"cbu":"0000161400000000004309"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20000014479","cbu":"0000004800000000014485","banco":"000","recurrencia":true,"prestacion":"SivENDE"},"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":175.02}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":175.02}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"0000001700000000008455","banco":"000"},"comprador":{"cuit":"20000000222","cuenta":{"cbu":"0000207500000000000055","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"20000000222","cuenta":{"cbu":"0000207500000000000055"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}|"operacion":{"comprador":{"cuit":"20000000222","cuenta":{"cbu":"9981522200000000000192"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":360}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"9988851800000000000628","banco":"998"},"comprador":{"cuit":"20000000222","cuenta":{"cbu":"0000207500000000000055","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":550}}}|"operacion":{"comprador":{"cuit":"20000000222","cuenta":{"cbu":"0000207500000000000055"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":550}}}|"operacion":{"comprador":{"cuit":"20000000222","cuenta":{"cbu":"9981522200000000000192"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":550}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"0000001700000000008455","banco":"000"},"comprador":{"cuit":"20000000222","cuenta":{"cbu":"9981522200000000000192","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":300.02}}}|"operacion":{"comprador":{"cuit":"20000000222","cuenta":{"cbu":"9981522200000000000192"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":300.02}}}</t>
   </si>
 </sst>
 </file>
@@ -245,7 +267,24 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -521,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="D12" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,259 +831,477 @@
         <v>43</v>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EB0045-D9C0-4266-8CC9-C2E5307A6446}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="100" style="1" customWidth="1"/>
+    <col min="4" max="4" width="76.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="99.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>59159</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>59160</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>59154</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>59167</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>59168</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>59153</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>59157</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>59166</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>59155</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>59156</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>59158</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>59145</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>59146</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>59161</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="16" spans="1:5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>59159</v>
+        <v>50453</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>59160</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>59154</v>
-      </c>
-      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8F8830-B4DB-420C-AD2C-788A9E56D093}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="100" style="1" customWidth="1"/>
+    <col min="4" max="4" width="76.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="99.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>62320</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>59167</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>62321</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>59168</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="4" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>62322</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="C4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>59153</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>62319</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="C5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>59157</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>62327</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="C6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>59166</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>62325</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>59155</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="8" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>62326</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:5" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>59156</v>
-      </c>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>59158</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>59145</v>
-      </c>
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>59146</v>
-      </c>
-      <c r="B28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>59161</v>
-      </c>
-      <c r="B29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>50453</v>
-      </c>
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" t="s">
-        <v>49</v>
+    <row r="9" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>62328</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Ambiente/Garantia Liquidaciones Release 218 - Regresíon - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Garantia Liquidaciones Release 218 - Regresíon - Escenarios y Casos de Pruebas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977100FD-D98E-4682-99CF-D931956D8048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023D1B46-E817-4404-AC77-AF536023C232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Credito Forzado" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Credito Forzado'!$A$1:$E$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Credito Forzado'!$A$1:$E$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Release 218'!$A$1:$E$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Release 224'!$A$1:$E$1</definedName>
   </definedNames>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="59">
   <si>
     <t>Parametros</t>
   </si>
@@ -206,6 +206,15 @@
   </si>
   <si>
     <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"0000001700000000008455","banco":"000"},"comprador":{"cuit":"20000000222","cuenta":{"cbu":"9981522200000000000192","alias":""}},"detalle":{"concepto":"PCT","idUsuario":11232,"idComprobante":922808,"moneda":"032","importe":300.02}}}|"operacion":{"comprador":{"cuit":"20000000222","cuenta":{"cbu":"9981522200000000000192"}},"detalle":{"ori_trx":"00000307","ori_terminal":"","ori_adicional":"","moneda":"032","importe":300.02}}}</t>
+  </si>
+  <si>
+    <t>PaymentValidation-&gt;Payment</t>
+  </si>
+  <si>
+    <t>{"StatusCode":201,"Mensaje":{"transaction": {"code":"APPROVED","description":"PAYMENT CREACION CORRECTA"}}}</t>
+  </si>
+  <si>
+    <t>PAYMENTS - COELSA como Aceptador - DEVOLUCIÓN dentro de fecha</t>
   </si>
 </sst>
 </file>
@@ -241,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -263,28 +272,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -562,7 +557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="D12" workbookViewId="0">
+    <sheetView topLeftCell="D13" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -842,302 +837,6 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="51.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="100" style="1" customWidth="1"/>
-    <col min="4" max="4" width="76.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="99.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>59159</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>59160</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>59154</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>59167</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>59168</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>59153</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>59157</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>59166</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>59155</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>59156</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>59158</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>59145</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>59146</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>59161</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>50453</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8F8830-B4DB-420C-AD2C-788A9E56D093}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1168,141 +867,566 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>59159</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>59160</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>59154</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>59167</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>59168</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>59153</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>59157</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>59166</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>59155</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>59156</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>59158</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>59145</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>59146</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>59161</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>50453</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8F8830-B4DB-420C-AD2C-788A9E56D093}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="100" style="1" customWidth="1"/>
+    <col min="4" max="4" width="76.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="99.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>64076</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>64071</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>62320</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>62321</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="6" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>62322</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>62319</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>62327</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="9" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>62325</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="10" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>62326</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>62328</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="11" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>64211</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>50</v>
       </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>64049</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>60811</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>60812</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>60808</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>60809</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
